--- a/related work/overview.xlsx
+++ b/related work/overview.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>year</t>
   </si>
@@ -96,14 +96,49 @@
   </si>
   <si>
     <t>geology</t>
+  </si>
+  <si>
+    <t>Feature Emphasis and Contextual Cutaways for Multimodal Medical Visualization</t>
+  </si>
+  <si>
+    <t>burns et al</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>rigging/predifinition of cuts</t>
+  </si>
+  <si>
+    <t>importance factors from transferfunction</t>
+  </si>
+  <si>
+    <t>viola et al</t>
+  </si>
+  <si>
+    <t>Importance-Driven Feature Enhancement in Volume Visualization</t>
+  </si>
+  <si>
+    <t>importance factors from segmented volume objects</t>
+  </si>
+  <si>
+    <t>medical / vol</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -131,8 +166,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,42 +449,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G6"/>
+  <dimension ref="A2:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="65" customWidth="1"/>
+    <col min="2" max="2" width="72.42578125" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" customWidth="1"/>
     <col min="5" max="5" width="17.42578125" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" customWidth="1"/>
+    <col min="7" max="7" width="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -499,6 +535,9 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2013</v>
+      </c>
       <c r="B5" t="s">
         <v>17</v>
       </c>
@@ -534,8 +573,58 @@
       <c r="F6" t="s">
         <v>18</v>
       </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2007</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2005</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>